--- a/File.xlsx
+++ b/File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelaboohi/PycharmProjects/WhatsAppBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F2777F-1012-564D-A8BB-9391D6B3592A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D009911B-8A2F-884F-9B09-795638699C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{F1136278-4FE8-8D4E-8A59-8EEF5CBA7D7D}"/>
   </bookViews>
@@ -25,20 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>Raphael</t>
-  </si>
-  <si>
-    <t>Jeremie</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,10 +59,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,48 +375,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0E7DAD-FF91-0D4D-9F15-0761C5C35BB0}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>548172972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>503388381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/File.xlsx
+++ b/File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelaboohi/PycharmProjects/WhatsAppBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D009911B-8A2F-884F-9B09-795638699C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAAC333-DB1A-BC4D-89EE-043BF304E242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{F1136278-4FE8-8D4E-8A59-8EEF5CBA7D7D}"/>
   </bookViews>
@@ -25,7 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Jeremie</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,14 +388,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0E7DAD-FF91-0D4D-9F15-0761C5C35BB0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>548172972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>503388311</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>